--- a/SDLT Running Code/Taylor Bot/Document exceptions.xlsx
+++ b/SDLT Running Code/Taylor Bot/Document exceptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taylors\Taylor Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB7E8DD-E8E7-4856-B9C5-37625E619B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0638F98B-43F5-47D2-BC60-0181DCC92B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{D07A6CC9-51EE-4993-8856-176D2402356F}"/>
   </bookViews>
@@ -31,35 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
-  <si>
-    <t>NBT1800</t>
-  </si>
-  <si>
-    <t>New Build Purchase</t>
-  </si>
-  <si>
-    <t>NBT1799</t>
-  </si>
-  <si>
-    <t>NBT1580</t>
-  </si>
-  <si>
-    <t>NBT1712</t>
-  </si>
-  <si>
-    <t>NBT1794</t>
-  </si>
-  <si>
-    <t>NBT1339</t>
-  </si>
-  <si>
-    <t>NBT896</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,242 +387,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14068570-272D-465B-A76B-9B698398D637}">
-  <dimension ref="A3:K22"/>
+  <dimension ref="C3:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -662,7 +479,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -673,7 +490,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -684,7 +501,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -695,7 +512,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -706,7 +523,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -716,7 +533,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>

--- a/SDLT Running Code/Taylor Bot/Document exceptions.xlsx
+++ b/SDLT Running Code/Taylor Bot/Document exceptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taylors\Taylor Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0638F98B-43F5-47D2-BC60-0181DCC92B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9357188E-8006-405A-B87A-D51DB0C70BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{D07A6CC9-51EE-4993-8856-176D2402356F}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{D07A6CC9-51EE-4993-8856-176D2402356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+  <si>
+    <t>NNT1028</t>
+  </si>
+  <si>
+    <t>New Build Purchase</t>
+  </si>
+  <si>
+    <t>NBT1872</t>
+  </si>
+  <si>
+    <t>NNT1227</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,44 +404,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14068570-272D-465B-A76B-9B698398D637}">
-  <dimension ref="C3:K22"/>
+  <dimension ref="A3:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -435,7 +518,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -446,7 +529,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -457,7 +540,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -468,7 +551,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -479,7 +562,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -490,7 +573,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -501,7 +584,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -512,7 +595,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -523,7 +606,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -533,7 +616,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>

--- a/SDLT Running Code/Taylor Bot/Document exceptions.xlsx
+++ b/SDLT Running Code/Taylor Bot/Document exceptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taylors\Taylor Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9357188E-8006-405A-B87A-D51DB0C70BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AECA711-1DBD-47C3-82EC-135CC29130AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{D07A6CC9-51EE-4993-8856-176D2402356F}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{D07A6CC9-51EE-4993-8856-176D2402356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>NNT1028</t>
+    <t>NBT1893</t>
   </si>
   <si>
     <t>New Build Purchase</t>
-  </si>
-  <si>
-    <t>NBT1872</t>
-  </si>
-  <si>
-    <t>NNT1227</t>
   </si>
 </sst>
 </file>
@@ -411,73 +405,29 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
